--- a/output/adj_close_monthly_1y_wide.xlsx
+++ b/output/adj_close_monthly_1y_wide.xlsx
@@ -446,2429 +446,2399 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-09</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMBA</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ambarella, Inc.</t>
+          <t>Macy's, Inc.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56.40999984741211</v>
+        <v>14.74483680725098</v>
       </c>
       <c r="D2" t="n">
-        <v>56.18999862670898</v>
+        <v>15.60991954803467</v>
       </c>
       <c r="E2" t="n">
-        <v>71.55000305175781</v>
+        <v>16.27314949035645</v>
       </c>
       <c r="F2" t="n">
-        <v>72.73999786376953</v>
+        <v>15.13701057434082</v>
       </c>
       <c r="G2" t="n">
-        <v>76.72000122070312</v>
+        <v>13.94198513031006</v>
       </c>
       <c r="H2" t="n">
-        <v>61.43000030517578</v>
+        <v>12.20287990570068</v>
       </c>
       <c r="I2" t="n">
-        <v>50.33000183105469</v>
+        <v>11.24534130096436</v>
       </c>
       <c r="J2" t="n">
-        <v>47.9900016784668</v>
+        <v>11.70815277099609</v>
       </c>
       <c r="K2" t="n">
-        <v>52.63999938964844</v>
+        <v>11.48167037963867</v>
       </c>
       <c r="L2" t="n">
-        <v>66.06999969482422</v>
+        <v>12.63000011444092</v>
       </c>
       <c r="M2" t="n">
-        <v>66.08999633789062</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="N2" t="n">
-        <v>82.48000335693359</v>
+        <v>16.28000068664551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IREN</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IREN Limited</t>
+          <t>REV Group, Inc.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.439999580383301</v>
+        <v>26.36732482910156</v>
       </c>
       <c r="D3" t="n">
-        <v>9.119999885559082</v>
+        <v>30.86469459533691</v>
       </c>
       <c r="E3" t="n">
-        <v>13.51000022888184</v>
+        <v>31.71043968200684</v>
       </c>
       <c r="F3" t="n">
-        <v>9.819999694824219</v>
+        <v>34.59213638305664</v>
       </c>
       <c r="G3" t="n">
-        <v>10.22000026702881</v>
+        <v>30.40519332885742</v>
       </c>
       <c r="H3" t="n">
-        <v>8.239999771118164</v>
+        <v>31.50177574157715</v>
       </c>
       <c r="I3" t="n">
-        <v>6.090000152587891</v>
+        <v>32.65714645385742</v>
       </c>
       <c r="J3" t="n">
-        <v>6.110000133514404</v>
+        <v>37.44086837768555</v>
       </c>
       <c r="K3" t="n">
-        <v>8.390000343322754</v>
+        <v>47.52762985229492</v>
       </c>
       <c r="L3" t="n">
-        <v>14.56999969482422</v>
+        <v>49.54999923706055</v>
       </c>
       <c r="M3" t="n">
-        <v>16.11000061035156</v>
+        <v>53.20999908447266</v>
       </c>
       <c r="N3" t="n">
-        <v>26.47999954223633</v>
+        <v>58.31999969482422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>IMVT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alibaba Group Holding Limited</t>
+          <t>Immunovant, Inc.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>104.3561859130859</v>
+        <v>29.26000022888184</v>
       </c>
       <c r="D4" t="n">
-        <v>96.35148620605469</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="E4" t="n">
-        <v>85.91783142089844</v>
+        <v>24.77000045776367</v>
       </c>
       <c r="F4" t="n">
-        <v>83.38071441650391</v>
+        <v>21.73999977111816</v>
       </c>
       <c r="G4" t="n">
-        <v>97.19718170166016</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="H4" t="n">
-        <v>130.3075561523438</v>
+        <v>17.09000015258789</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0322113037109</v>
+        <v>16.14999961853027</v>
       </c>
       <c r="J4" t="n">
-        <v>117.4449615478516</v>
+        <v>14.85000038146973</v>
       </c>
       <c r="K4" t="n">
-        <v>111.947868347168</v>
+        <v>16</v>
       </c>
       <c r="L4" t="n">
-        <v>111.5250244140625</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="M4" t="n">
-        <v>120.629997253418</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="N4" t="n">
-        <v>135</v>
+        <v>16.70000076293945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Affirm Holdings, Inc.</t>
+          <t>Alphabet Inc.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.81999969482422</v>
+        <v>170.5110931396484</v>
       </c>
       <c r="D5" t="n">
-        <v>43.84999847412109</v>
+        <v>168.358642578125</v>
       </c>
       <c r="E5" t="n">
-        <v>70.01000213623047</v>
+        <v>188.6374206542969</v>
       </c>
       <c r="F5" t="n">
-        <v>60.90000152587891</v>
+        <v>203.5389099121094</v>
       </c>
       <c r="G5" t="n">
-        <v>61.06999969482422</v>
+        <v>169.8784484863281</v>
       </c>
       <c r="H5" t="n">
-        <v>64.15000152587891</v>
+        <v>154.2753448486328</v>
       </c>
       <c r="I5" t="n">
-        <v>45.18999862670898</v>
+        <v>158.6079864501953</v>
       </c>
       <c r="J5" t="n">
-        <v>49.7599983215332</v>
+        <v>171.5323486328125</v>
       </c>
       <c r="K5" t="n">
-        <v>51.90000152587891</v>
+        <v>176.0169067382812</v>
       </c>
       <c r="L5" t="n">
-        <v>69.13999938964844</v>
+        <v>191.8999938964844</v>
       </c>
       <c r="M5" t="n">
-        <v>68.55999755859375</v>
+        <v>212.9100036621094</v>
       </c>
       <c r="N5" t="n">
-        <v>88.44960021972656</v>
+        <v>230.6600036621094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DOOO</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRP Inc.</t>
+          <t>Alphabet Inc.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.76689910888672</v>
+        <v>172.0911560058594</v>
       </c>
       <c r="D6" t="n">
-        <v>48.75601577758789</v>
+        <v>169.8987884521484</v>
       </c>
       <c r="E6" t="n">
-        <v>48.22164535522461</v>
+        <v>189.7796020507812</v>
       </c>
       <c r="F6" t="n">
-        <v>50.33932113647461</v>
+        <v>205.1194763183594</v>
       </c>
       <c r="G6" t="n">
-        <v>47.44883346557617</v>
+        <v>171.8175048828125</v>
       </c>
       <c r="H6" t="n">
-        <v>39.3504753112793</v>
+        <v>155.8648681640625</v>
       </c>
       <c r="I6" t="n">
-        <v>33.55459213256836</v>
+        <v>160.6968383789062</v>
       </c>
       <c r="J6" t="n">
-        <v>33.63398361206055</v>
+        <v>172.6424865722656</v>
       </c>
       <c r="K6" t="n">
-        <v>43.85727310180664</v>
+        <v>177.1770324707031</v>
       </c>
       <c r="L6" t="n">
-        <v>48.31277465820312</v>
+        <v>192.8600006103516</v>
       </c>
       <c r="M6" t="n">
-        <v>50.5099983215332</v>
+        <v>213.5299987792969</v>
       </c>
       <c r="N6" t="n">
-        <v>62.97999954223633</v>
+        <v>231.1000061035156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Autodesk, Inc.</t>
+          <t>NuScale Power Corporation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>275.4800109863281</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="D7" t="n">
-        <v>283.7999877929688</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="E7" t="n">
-        <v>291.8999938964844</v>
+        <v>17.93000030517578</v>
       </c>
       <c r="F7" t="n">
-        <v>295.5700073242188</v>
+        <v>23.84000015258789</v>
       </c>
       <c r="G7" t="n">
-        <v>311.3399963378906</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="H7" t="n">
-        <v>274.2099914550781</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="I7" t="n">
-        <v>261.7999877929688</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="J7" t="n">
-        <v>274.25</v>
+        <v>31.98999977111816</v>
       </c>
       <c r="K7" t="n">
-        <v>296.1199951171875</v>
+        <v>39.56000137329102</v>
       </c>
       <c r="L7" t="n">
-        <v>309.5700073242188</v>
+        <v>50.20999908447266</v>
       </c>
       <c r="M7" t="n">
-        <v>303.1099853515625</v>
+        <v>34.65000152587891</v>
       </c>
       <c r="N7" t="n">
-        <v>314.7000122070312</v>
+        <v>40.41999816894531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CIFR</t>
+          <t>ARWR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cipher Mining Inc.</t>
+          <t>Arrowhead Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.869999885559082</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="D8" t="n">
-        <v>4.929999828338623</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="E8" t="n">
-        <v>6.699999809265137</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F8" t="n">
-        <v>4.639999866485596</v>
+        <v>19.8799991607666</v>
       </c>
       <c r="G8" t="n">
-        <v>5.730000019073486</v>
+        <v>18.90999984741211</v>
       </c>
       <c r="H8" t="n">
-        <v>4.079999923706055</v>
+        <v>12.73999977111816</v>
       </c>
       <c r="I8" t="n">
-        <v>2.299999952316284</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="J8" t="n">
-        <v>2.849999904632568</v>
+        <v>16.06999969482422</v>
       </c>
       <c r="K8" t="n">
-        <v>3.119999885559082</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="L8" t="n">
-        <v>4.78000020980835</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="M8" t="n">
-        <v>5.460000038146973</v>
+        <v>22.03000068664551</v>
       </c>
       <c r="N8" t="n">
-        <v>7.639999866485596</v>
+        <v>27.79999923706055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SATS</t>
+          <t>NWL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EchoStar Corporation</t>
+          <t>Newell Brands Inc.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.81999969482422</v>
+        <v>8.427759170532227</v>
       </c>
       <c r="D9" t="n">
-        <v>25.05999946594238</v>
+        <v>9.184340476989746</v>
       </c>
       <c r="E9" t="n">
-        <v>25.29000091552734</v>
+        <v>9.609048843383789</v>
       </c>
       <c r="F9" t="n">
-        <v>22.89999961853027</v>
+        <v>9.609048843383789</v>
       </c>
       <c r="G9" t="n">
-        <v>27.65999984741211</v>
+        <v>6.193784713745117</v>
       </c>
       <c r="H9" t="n">
-        <v>31.22999954223633</v>
+        <v>6.047997951507568</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57999992370605</v>
+        <v>4.662811756134033</v>
       </c>
       <c r="J9" t="n">
-        <v>22.47999954223633</v>
+        <v>5.170063018798828</v>
       </c>
       <c r="K9" t="n">
-        <v>17.72999954223633</v>
+        <v>5.336148738861084</v>
       </c>
       <c r="L9" t="n">
-        <v>27.70000076293945</v>
+        <v>5.543665885925293</v>
       </c>
       <c r="M9" t="n">
-        <v>32.59000015258789</v>
+        <v>5.850000381469727</v>
       </c>
       <c r="N9" t="n">
-        <v>61.79000091552734</v>
+        <v>6.289999961853027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>PSIX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SentinelOne, Inc.</t>
+          <t>Power Solutions International, Inc.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.92000007629395</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="D10" t="n">
-        <v>25.79000091552734</v>
+        <v>30.75</v>
       </c>
       <c r="E10" t="n">
-        <v>27.95000076293945</v>
+        <v>29.75</v>
       </c>
       <c r="F10" t="n">
-        <v>22.20000076293945</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="G10" t="n">
-        <v>23.95000076293945</v>
+        <v>33.36999893188477</v>
       </c>
       <c r="H10" t="n">
-        <v>20.6299991607666</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="I10" t="n">
-        <v>18.18000030517578</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="J10" t="n">
-        <v>18.5</v>
+        <v>42.36999893188477</v>
       </c>
       <c r="K10" t="n">
-        <v>17.61000061035156</v>
+        <v>64.68000030517578</v>
       </c>
       <c r="L10" t="n">
-        <v>18.28000068664551</v>
+        <v>93.75</v>
       </c>
       <c r="M10" t="n">
-        <v>18.34000015258789</v>
+        <v>82.88999938964844</v>
       </c>
       <c r="N10" t="n">
-        <v>18.86000061035156</v>
+        <v>87.26000213623047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>OSCR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Equinox Gold Corp.</t>
+          <t>Oscar Health, Inc.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.090000152587891</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="D11" t="n">
-        <v>5.539999961853027</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="E11" t="n">
-        <v>5.650000095367432</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="F11" t="n">
-        <v>5.019999980926514</v>
+        <v>16.60000038146973</v>
       </c>
       <c r="G11" t="n">
-        <v>6.070000171661377</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="H11" t="n">
-        <v>6.420000076293945</v>
+        <v>13.10999965667725</v>
       </c>
       <c r="I11" t="n">
-        <v>6.880000114440918</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="J11" t="n">
-        <v>6.699999809265137</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="K11" t="n">
-        <v>6.630000114440918</v>
+        <v>21.44000053405762</v>
       </c>
       <c r="L11" t="n">
-        <v>5.75</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="M11" t="n">
-        <v>6.099999904632568</v>
+        <v>16.65999984741211</v>
       </c>
       <c r="N11" t="n">
-        <v>8.760000228881836</v>
+        <v>17.68000030517578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NXE</t>
+          <t>RGC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NexGen Energy Ltd.</t>
+          <t>Regencell Bioscience Holdings Limited</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.53000020980835</v>
+        <v>0.1736840009689331</v>
       </c>
       <c r="D12" t="n">
-        <v>7.360000133514404</v>
+        <v>0.1663160026073456</v>
       </c>
       <c r="E12" t="n">
-        <v>8.439999580383301</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="F12" t="n">
-        <v>6.599999904632568</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="G12" t="n">
-        <v>6.559999942779541</v>
+        <v>0.1210530027747154</v>
       </c>
       <c r="H12" t="n">
-        <v>5.289999961853027</v>
+        <v>0.8389469981193542</v>
       </c>
       <c r="I12" t="n">
-        <v>4.489999771118164</v>
+        <v>1.578946948051453</v>
       </c>
       <c r="J12" t="n">
-        <v>5.230000019073486</v>
+        <v>23.07894706726074</v>
       </c>
       <c r="K12" t="n">
-        <v>6.179999828338623</v>
+        <v>17.04000091552734</v>
       </c>
       <c r="L12" t="n">
-        <v>6.940000057220459</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="M12" t="n">
-        <v>6.710000038146973</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="N12" t="n">
-        <v>7.880000114440918</v>
+        <v>13.81999969482422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIAX</t>
+          <t>HQY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Miami International Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>HealthEquity, Inc.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>101.5400009155273</v>
+      </c>
+      <c r="E13" t="n">
+        <v>95.94999694824219</v>
+      </c>
+      <c r="F13" t="n">
+        <v>110.4199981689453</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109.7600021362305</v>
+      </c>
+      <c r="H13" t="n">
+        <v>88.37000274658203</v>
+      </c>
+      <c r="I13" t="n">
+        <v>85.72000122070312</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100.6100006103516</v>
+      </c>
+      <c r="K13" t="n">
+        <v>104.7600021362305</v>
+      </c>
+      <c r="L13" t="n">
+        <v>97</v>
+      </c>
+      <c r="M13" t="n">
+        <v>89.33000183105469</v>
+      </c>
       <c r="N13" t="n">
-        <v>37.58000183105469</v>
+        <v>95.54000091552734</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>CPB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NovaGold Resources Inc.</t>
+          <t>The Campbell's Company</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.099999904632568</v>
+        <v>44.849853515625</v>
       </c>
       <c r="D14" t="n">
-        <v>3.460000038146973</v>
+        <v>44.76327514648438</v>
       </c>
       <c r="E14" t="n">
-        <v>3.660000085830688</v>
+        <v>40.57761764526367</v>
       </c>
       <c r="F14" t="n">
-        <v>3.329999923706055</v>
+        <v>37.5643310546875</v>
       </c>
       <c r="G14" t="n">
-        <v>3.130000114440918</v>
+        <v>39.1790657043457</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>39.04213714599609</v>
       </c>
       <c r="I14" t="n">
-        <v>2.920000076293945</v>
+        <v>35.65822982788086</v>
       </c>
       <c r="J14" t="n">
-        <v>4.230000019073486</v>
+        <v>33.62435913085938</v>
       </c>
       <c r="K14" t="n">
-        <v>3.579999923706055</v>
+        <v>30.2757511138916</v>
       </c>
       <c r="L14" t="n">
-        <v>4.090000152587891</v>
+        <v>31.53024482727051</v>
       </c>
       <c r="M14" t="n">
-        <v>5.190000057220459</v>
+        <v>31.93000030517578</v>
       </c>
       <c r="N14" t="n">
-        <v>6.840000152587891</v>
+        <v>33.72999954223633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRVA</t>
+          <t>HIMS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Privia Health Group, Inc.</t>
+          <t>Hims &amp; Hers Health, Inc.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.20999908447266</v>
+        <v>18.82999992370605</v>
       </c>
       <c r="D15" t="n">
-        <v>18.36000061035156</v>
+        <v>32.22000122070312</v>
       </c>
       <c r="E15" t="n">
-        <v>21.47999954223633</v>
+        <v>24.18000030517578</v>
       </c>
       <c r="F15" t="n">
-        <v>19.54999923706055</v>
+        <v>37.27999877929688</v>
       </c>
       <c r="G15" t="n">
-        <v>22.85000038146973</v>
+        <v>45.09000015258789</v>
       </c>
       <c r="H15" t="n">
-        <v>24.96999931335449</v>
+        <v>29.54999923706055</v>
       </c>
       <c r="I15" t="n">
-        <v>22.45000076293945</v>
+        <v>33.09999847412109</v>
       </c>
       <c r="J15" t="n">
-        <v>23.47999954223633</v>
+        <v>56.56000137329102</v>
       </c>
       <c r="K15" t="n">
-        <v>22.76000022888184</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="L15" t="n">
-        <v>23</v>
+        <v>66.18000030517578</v>
       </c>
       <c r="M15" t="n">
-        <v>19.52000045776367</v>
+        <v>42.34999847412109</v>
       </c>
       <c r="N15" t="n">
-        <v>23.04000091552734</v>
+        <v>44.45999908447266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SSRM</t>
+          <t>TGTX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SSR Mining Inc.</t>
+          <t>TG Therapeutics, Inc.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.679999828338623</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="D16" t="n">
-        <v>6.170000076293945</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="E16" t="n">
-        <v>5.809999942779541</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="F16" t="n">
-        <v>6.960000038146973</v>
+        <v>31.70000076293945</v>
       </c>
       <c r="G16" t="n">
-        <v>8.029999732971191</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="H16" t="n">
-        <v>9.989999771118164</v>
+        <v>39.43000030517578</v>
       </c>
       <c r="I16" t="n">
-        <v>10.02999973297119</v>
+        <v>45.5099983215332</v>
       </c>
       <c r="J16" t="n">
-        <v>10.64000034332275</v>
+        <v>35.11000061035156</v>
       </c>
       <c r="K16" t="n">
-        <v>11.82999992370605</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="L16" t="n">
-        <v>12.73999977111816</v>
+        <v>35.5</v>
       </c>
       <c r="M16" t="n">
-        <v>11.94999980926514</v>
+        <v>29.32999992370605</v>
       </c>
       <c r="N16" t="n">
-        <v>19.30999946594238</v>
+        <v>31.70999908447266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>KYMR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hecla Mining Company</t>
+          <t>Kymera Therapeutics, Inc.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.639759063720703</v>
+        <v>46.16999816894531</v>
       </c>
       <c r="D17" t="n">
-        <v>6.460575580596924</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="E17" t="n">
-        <v>5.494973182678223</v>
+        <v>40.22999954223633</v>
       </c>
       <c r="F17" t="n">
-        <v>4.899923801422119</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="G17" t="n">
-        <v>5.668343067169189</v>
+        <v>31.35000038146973</v>
       </c>
       <c r="H17" t="n">
-        <v>5.119472503662109</v>
+        <v>27.3700008392334</v>
       </c>
       <c r="I17" t="n">
-        <v>5.54858922958374</v>
+        <v>34.27000045776367</v>
       </c>
       <c r="J17" t="n">
-        <v>5.712469100952148</v>
+        <v>29.63999938964844</v>
       </c>
       <c r="K17" t="n">
-        <v>5.133233070373535</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="L17" t="n">
-        <v>5.986884117126465</v>
+        <v>43.75</v>
       </c>
       <c r="M17" t="n">
-        <v>5.737013816833496</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="N17" t="n">
-        <v>8.510000228881836</v>
+        <v>43.29999923706055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>KYIV</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Celsius Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>31.36000061035156</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30.07999992370605</v>
-      </c>
-      <c r="E18" t="n">
-        <v>28.45000076293945</v>
-      </c>
+          <t>Kyivstar Group Ltd.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>26.34000015258789</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="G18" t="n">
-        <v>24.97999954223633</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="H18" t="n">
-        <v>25.69000053405762</v>
+        <v>11.21000003814697</v>
       </c>
       <c r="I18" t="n">
-        <v>35.61999893188477</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="J18" t="n">
-        <v>34.95999908447266</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>37.88000106811523</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="L18" t="n">
-        <v>46.38999938964844</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="M18" t="n">
-        <v>45.34000015258789</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="N18" t="n">
-        <v>62.88000106811523</v>
+        <v>11.76000022888184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Harmony Gold Mining Company Limited</t>
+          <t>DexCom, Inc.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10.04246425628662</v>
+        <v>70.48000335693359</v>
       </c>
       <c r="D19" t="n">
-        <v>10.70406150817871</v>
+        <v>77.98999786376953</v>
       </c>
       <c r="E19" t="n">
-        <v>9.122093200683594</v>
+        <v>77.76999664306641</v>
       </c>
       <c r="F19" t="n">
-        <v>8.149334907531738</v>
+        <v>86.83000183105469</v>
       </c>
       <c r="G19" t="n">
-        <v>11.18672466278076</v>
+        <v>88.37000274658203</v>
       </c>
       <c r="H19" t="n">
-        <v>9.876477241516113</v>
+        <v>68.29000091552734</v>
       </c>
       <c r="I19" t="n">
-        <v>14.66086196899414</v>
+        <v>71.37999725341797</v>
       </c>
       <c r="J19" t="n">
-        <v>15.79243755340576</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="K19" t="n">
-        <v>14.59000015258789</v>
+        <v>87.29000091552734</v>
       </c>
       <c r="L19" t="n">
-        <v>13.97000026702881</v>
+        <v>80.76999664306641</v>
       </c>
       <c r="M19" t="n">
-        <v>13.46000003814697</v>
+        <v>75.33999633789062</v>
       </c>
       <c r="N19" t="n">
-        <v>13.27999973297119</v>
+        <v>78.91999816894531</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OS</t>
+          <t>PTCT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OneStream, Inc.</t>
+          <t>PTC Therapeutics, Inc.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33.90000152587891</v>
+        <v>39.91999816894531</v>
       </c>
       <c r="D20" t="n">
-        <v>29.52000045776367</v>
+        <v>43.88000106811523</v>
       </c>
       <c r="E20" t="n">
-        <v>29.88999938964844</v>
+        <v>45.13999938964844</v>
       </c>
       <c r="F20" t="n">
-        <v>28.52000045776367</v>
+        <v>45.88000106811523</v>
       </c>
       <c r="G20" t="n">
-        <v>29.78000068664551</v>
+        <v>55.2599983215332</v>
       </c>
       <c r="H20" t="n">
-        <v>23.29999923706055</v>
+        <v>50.95999908447266</v>
       </c>
       <c r="I20" t="n">
-        <v>21.34000015258789</v>
+        <v>49.84000015258789</v>
       </c>
       <c r="J20" t="n">
-        <v>21.39999961853027</v>
+        <v>48.52000045776367</v>
       </c>
       <c r="K20" t="n">
-        <v>28.05999946594238</v>
+        <v>48.84000015258789</v>
       </c>
       <c r="L20" t="n">
-        <v>28.29999923706055</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="M20" t="n">
-        <v>23.85000038146973</v>
+        <v>49.33000183105469</v>
       </c>
       <c r="N20" t="n">
-        <v>20.79000091552734</v>
+        <v>55.54999923706055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CNXC</t>
+          <t>HMY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Concentrix Corporation</t>
+          <t>Harmony Gold Mining Company Limited</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49.95600891113281</v>
+        <v>10.70406150817871</v>
       </c>
       <c r="D21" t="n">
-        <v>41.43667984008789</v>
+        <v>9.122093200683594</v>
       </c>
       <c r="E21" t="n">
-        <v>44.13597869873047</v>
+        <v>8.149334907531738</v>
       </c>
       <c r="F21" t="n">
-        <v>42.48640441894531</v>
+        <v>11.18672466278076</v>
       </c>
       <c r="G21" t="n">
-        <v>51.33323287963867</v>
+        <v>9.876477241516113</v>
       </c>
       <c r="H21" t="n">
-        <v>44.61995697021484</v>
+        <v>14.66086196899414</v>
       </c>
       <c r="I21" t="n">
-        <v>54.97462844848633</v>
+        <v>15.79243755340576</v>
       </c>
       <c r="J21" t="n">
-        <v>50.44940185546875</v>
+        <v>14.59000015258789</v>
       </c>
       <c r="K21" t="n">
-        <v>55.65837860107422</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="L21" t="n">
-        <v>52.5654182434082</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="M21" t="n">
-        <v>51.68526840209961</v>
+        <v>13.27999973297119</v>
       </c>
       <c r="N21" t="n">
-        <v>52.7599983215332</v>
+        <v>15.10000038146973</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>CLS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Baidu, Inc.</t>
+          <t>Celestica Inc.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>105.2900009155273</v>
+        <v>68.40000152587891</v>
       </c>
       <c r="D22" t="n">
-        <v>91.23000335693359</v>
+        <v>85.23999786376953</v>
       </c>
       <c r="E22" t="n">
-        <v>85.05000305175781</v>
+        <v>92.30000305175781</v>
       </c>
       <c r="F22" t="n">
-        <v>84.30999755859375</v>
+        <v>123.4700012207031</v>
       </c>
       <c r="G22" t="n">
-        <v>90.59999847412109</v>
+        <v>107.0500030517578</v>
       </c>
       <c r="H22" t="n">
-        <v>86.44999694824219</v>
+        <v>78.80999755859375</v>
       </c>
       <c r="I22" t="n">
-        <v>92.02999877929688</v>
+        <v>85.34999847412109</v>
       </c>
       <c r="J22" t="n">
-        <v>87.81999969482422</v>
+        <v>115.379997253418</v>
       </c>
       <c r="K22" t="n">
-        <v>81.90000152587891</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="L22" t="n">
-        <v>85.76000213623047</v>
+        <v>199.8600006103516</v>
       </c>
       <c r="M22" t="n">
-        <v>87.87000274658203</v>
+        <v>194.75</v>
       </c>
       <c r="N22" t="n">
-        <v>95.30000305175781</v>
+        <v>211.8699951171875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>BMNR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Coeur Mining, Inc.</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>6.880000114440918</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.440000057220459</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.460000038146973</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5.71999979019165</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.599999904632568</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.150000095367432</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.920000076293945</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.550000190734863</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.079999923706055</v>
-      </c>
+          <t>Bitmine Immersion Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>8.859999656677246</v>
+        <v>34.63999938964844</v>
       </c>
       <c r="M23" t="n">
-        <v>8.689999580383301</v>
+        <v>43.61999893188477</v>
       </c>
       <c r="N23" t="n">
-        <v>13.14999961853027</v>
+        <v>44.86000061035156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JOYY</t>
+          <t>TIGR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOYY Inc.</t>
+          <t>UP Fintech Holding Limited</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34.73515319824219</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D24" t="n">
-        <v>32.63609313964844</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E24" t="n">
-        <v>37.23677062988281</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="F24" t="n">
-        <v>40.11219787597656</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="G24" t="n">
-        <v>41.54991149902344</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="H24" t="n">
-        <v>44.84706878662109</v>
+        <v>8.590000152587891</v>
       </c>
       <c r="I24" t="n">
-        <v>40.23680114746094</v>
+        <v>8.25</v>
       </c>
       <c r="J24" t="n">
-        <v>39.45085144042969</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="K24" t="n">
-        <v>46.97696685791016</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="L24" t="n">
-        <v>49.94982147216797</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="M24" t="n">
-        <v>50.20000076293945</v>
+        <v>12.5</v>
       </c>
       <c r="N24" t="n">
-        <v>54.06000137329102</v>
+        <v>12.98999977111816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>WIX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Guardant Health, Inc.</t>
+          <t>Wix.com Ltd.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22.94000053405762</v>
+        <v>167.1199951171875</v>
       </c>
       <c r="D25" t="n">
-        <v>21.8799991607666</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="E25" t="n">
-        <v>35.61000061035156</v>
+        <v>214.5500030517578</v>
       </c>
       <c r="F25" t="n">
-        <v>30.54999923706055</v>
+        <v>238.8899993896484</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97999954223633</v>
+        <v>200.6900024414062</v>
       </c>
       <c r="H25" t="n">
-        <v>42.54999923706055</v>
+        <v>163.3800048828125</v>
       </c>
       <c r="I25" t="n">
-        <v>42.59999847412109</v>
+        <v>169.5899963378906</v>
       </c>
       <c r="J25" t="n">
-        <v>47.22999954223633</v>
+        <v>148.9499969482422</v>
       </c>
       <c r="K25" t="n">
-        <v>40.61999893188477</v>
+        <v>158.4600067138672</v>
       </c>
       <c r="L25" t="n">
-        <v>52.04000091552734</v>
+        <v>136.0299987792969</v>
       </c>
       <c r="M25" t="n">
-        <v>40.97999954223633</v>
+        <v>141.0800018310547</v>
       </c>
       <c r="N25" t="n">
-        <v>67.41999816894531</v>
+        <v>144.6499938964844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BTDR</t>
+          <t>IONS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bitdeer Technologies Group</t>
+          <t>Ionis Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.829999923706055</v>
+        <v>38.38999938964844</v>
       </c>
       <c r="D26" t="n">
-        <v>7.789999961853027</v>
+        <v>35.72999954223633</v>
       </c>
       <c r="E26" t="n">
-        <v>14.27000045776367</v>
+        <v>34.95999908447266</v>
       </c>
       <c r="F26" t="n">
-        <v>21.67000007629395</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="G26" t="n">
-        <v>18.52000045776367</v>
+        <v>33.18999862670898</v>
       </c>
       <c r="H26" t="n">
-        <v>12.3100004196167</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="I26" t="n">
-        <v>8.829999923706055</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="J26" t="n">
-        <v>9.569999694824219</v>
+        <v>33.5099983215332</v>
       </c>
       <c r="K26" t="n">
-        <v>12.85999965667725</v>
+        <v>39.5099983215332</v>
       </c>
       <c r="L26" t="n">
-        <v>11.47999954223633</v>
+        <v>42.97999954223633</v>
       </c>
       <c r="M26" t="n">
-        <v>12.89000034332275</v>
+        <v>42.63999938964844</v>
       </c>
       <c r="N26" t="n">
-        <v>14.28999996185303</v>
+        <v>60.4900016784668</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Cooper Companies, Inc.</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>110.3399963378906</v>
-      </c>
-      <c r="D27" t="n">
-        <v>104.6800003051758</v>
-      </c>
-      <c r="E27" t="n">
-        <v>104.4599990844727</v>
-      </c>
-      <c r="F27" t="n">
-        <v>91.93000030517578</v>
-      </c>
-      <c r="G27" t="n">
-        <v>96.55000305175781</v>
-      </c>
-      <c r="H27" t="n">
-        <v>90.37999725341797</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84.34999847412109</v>
-      </c>
-      <c r="J27" t="n">
-        <v>81.66999816894531</v>
-      </c>
-      <c r="K27" t="n">
-        <v>68.27999877929688</v>
-      </c>
-      <c r="L27" t="n">
-        <v>71.16000366210938</v>
-      </c>
+          <t>McGraw Hill, Inc.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>70.69000244140625</v>
+        <v>14.52000045776367</v>
       </c>
       <c r="N27" t="n">
-        <v>67.39499664306641</v>
+        <v>14.92000007629395</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>LEGN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gold Fields Limited</t>
+          <t>Legend Biotech Corporation</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14.89077377319336</v>
+        <v>45.02000045776367</v>
       </c>
       <c r="D28" t="n">
-        <v>16.18216705322266</v>
+        <v>42.06999969482422</v>
       </c>
       <c r="E28" t="n">
-        <v>14.2281322479248</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="F28" t="n">
-        <v>12.96144580841064</v>
+        <v>38.09999847412109</v>
       </c>
       <c r="G28" t="n">
-        <v>16.62403678894043</v>
+        <v>35.0099983215332</v>
       </c>
       <c r="H28" t="n">
-        <v>17.64524078369141</v>
+        <v>33.93000030517578</v>
       </c>
       <c r="I28" t="n">
-        <v>21.69078254699707</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="J28" t="n">
-        <v>22.54000091552734</v>
+        <v>28.95000076293945</v>
       </c>
       <c r="K28" t="n">
-        <v>23</v>
+        <v>35.4900016784668</v>
       </c>
       <c r="L28" t="n">
-        <v>23.67000007629395</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36000061035156</v>
+        <v>34.72999954223633</v>
       </c>
       <c r="N28" t="n">
-        <v>33.47999954223633</v>
+        <v>35.95000076293945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GSAT</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Globalstar, Inc.</t>
+          <t>Western Digital Corporation</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>18.60000038146973</v>
+        <v>49.27326965332031</v>
       </c>
       <c r="D29" t="n">
-        <v>15.75</v>
+        <v>55.06746292114258</v>
       </c>
       <c r="E29" t="n">
-        <v>29.25</v>
+        <v>44.98798370361328</v>
       </c>
       <c r="F29" t="n">
-        <v>31.04999923706055</v>
+        <v>49.13747024536133</v>
       </c>
       <c r="G29" t="n">
-        <v>22.95000076293945</v>
+        <v>48.8390007019043</v>
       </c>
       <c r="H29" t="n">
-        <v>21.59000015258789</v>
+        <v>40.35480880737305</v>
       </c>
       <c r="I29" t="n">
-        <v>20.86000061035156</v>
+        <v>43.7784309387207</v>
       </c>
       <c r="J29" t="n">
-        <v>19.21999931335449</v>
+        <v>51.45412826538086</v>
       </c>
       <c r="K29" t="n">
-        <v>18.45999908447266</v>
+        <v>63.87099456787109</v>
       </c>
       <c r="L29" t="n">
-        <v>23.54999923706055</v>
+        <v>78.69000244140625</v>
       </c>
       <c r="M29" t="n">
-        <v>23.48999977111816</v>
+        <v>80.33999633789062</v>
       </c>
       <c r="N29" t="n">
-        <v>29.93000030517578</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>UEC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sibanye Stillwater Limited</t>
+          <t>Uranium Energy Corp.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.110000133514404</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="D30" t="n">
-        <v>4.670000076293945</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="E30" t="n">
-        <v>4.090000152587891</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F30" t="n">
-        <v>3.299999952316284</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="G30" t="n">
-        <v>3.809999942779541</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="H30" t="n">
-        <v>3.190000057220459</v>
+        <v>4.78000020980835</v>
       </c>
       <c r="I30" t="n">
-        <v>4.579999923706055</v>
+        <v>5.25</v>
       </c>
       <c r="J30" t="n">
-        <v>4.650000095367432</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="K30" t="n">
-        <v>6.090000152587891</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="L30" t="n">
-        <v>7.21999979019165</v>
+        <v>8.670000076293945</v>
       </c>
       <c r="M30" t="n">
-        <v>8.359999656677246</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="N30" t="n">
-        <v>7.570000171661377</v>
+        <v>11.51000022888184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>SGHC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IAMGOLD Corporation</t>
+          <t>Super Group (SGHC) Limited</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.230000019073486</v>
+        <v>3.966184139251709</v>
       </c>
       <c r="D31" t="n">
-        <v>5.539999961853027</v>
+        <v>6.432956695556641</v>
       </c>
       <c r="E31" t="n">
-        <v>5.5</v>
+        <v>6.026664733886719</v>
       </c>
       <c r="F31" t="n">
-        <v>5.159999847412109</v>
+        <v>8.010533332824707</v>
       </c>
       <c r="G31" t="n">
-        <v>6.239999771118164</v>
+        <v>7.436230182647705</v>
       </c>
       <c r="H31" t="n">
-        <v>5.519999980926514</v>
+        <v>6.3767409324646</v>
       </c>
       <c r="I31" t="n">
-        <v>6.25</v>
+        <v>8.086446762084961</v>
       </c>
       <c r="J31" t="n">
-        <v>7.079999923706055</v>
+        <v>8.703884124755859</v>
       </c>
       <c r="K31" t="n">
-        <v>6.860000133514404</v>
+        <v>10.92467021942139</v>
       </c>
       <c r="L31" t="n">
-        <v>7.349999904632568</v>
+        <v>10.75</v>
       </c>
       <c r="M31" t="n">
-        <v>6.760000228881836</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="N31" t="n">
-        <v>9.310000419616699</v>
+        <v>11.5600004196167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOUN</t>
+          <t>WB</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SoundHound AI, Inc.</t>
+          <t>Weibo Corporation</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.659999847412109</v>
+        <v>8.104650497436523</v>
       </c>
       <c r="D32" t="n">
-        <v>5.03000020980835</v>
+        <v>8.597198486328125</v>
       </c>
       <c r="E32" t="n">
-        <v>9.310000419616699</v>
+        <v>8.552420616149902</v>
       </c>
       <c r="F32" t="n">
-        <v>19.84000015258789</v>
+        <v>8.794216156005859</v>
       </c>
       <c r="G32" t="n">
-        <v>14.14999961853027</v>
+        <v>8.964369773864746</v>
       </c>
       <c r="H32" t="n">
-        <v>10.81999969482422</v>
+        <v>8.480777740478516</v>
       </c>
       <c r="I32" t="n">
-        <v>8.119999885559082</v>
+        <v>7.253885746002197</v>
       </c>
       <c r="J32" t="n">
-        <v>9.289999961853027</v>
+        <v>9.050000190734863</v>
       </c>
       <c r="K32" t="n">
-        <v>10.10999965667725</v>
+        <v>9.529999732971191</v>
       </c>
       <c r="L32" t="n">
-        <v>10.72999954223633</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="M32" t="n">
-        <v>10.32999992370605</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="N32" t="n">
-        <v>13.02000045776367</v>
+        <v>11.8100004196167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HCC</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Warrior Met Coal, Inc.</t>
+          <t>Impinj, Inc.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>63.51871871948242</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="D33" t="n">
-        <v>62.75331497192383</v>
+        <v>192.2100067138672</v>
       </c>
       <c r="E33" t="n">
-        <v>69.90041351318359</v>
+        <v>145.2599945068359</v>
       </c>
       <c r="F33" t="n">
-        <v>53.98223495483398</v>
+        <v>126.8899993896484</v>
       </c>
       <c r="G33" t="n">
-        <v>52.51921844482422</v>
+        <v>96.66000366210938</v>
       </c>
       <c r="H33" t="n">
-        <v>47.91122055053711</v>
+        <v>90.69999694824219</v>
       </c>
       <c r="I33" t="n">
-        <v>47.57558441162109</v>
+        <v>92.12999725341797</v>
       </c>
       <c r="J33" t="n">
-        <v>47.6752815246582</v>
+        <v>114.0899963378906</v>
       </c>
       <c r="K33" t="n">
-        <v>45.31245422363281</v>
+        <v>111.0699996948242</v>
       </c>
       <c r="L33" t="n">
-        <v>45.7685661315918</v>
+        <v>154.5800018310547</v>
       </c>
       <c r="M33" t="n">
-        <v>51.31112670898438</v>
+        <v>187.4700012207031</v>
       </c>
       <c r="N33" t="n">
-        <v>61.13999938964844</v>
+        <v>194.4700012207031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>GMAB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>New Gold Inc.</t>
+          <t>Genmab A/S</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.880000114440918</v>
+        <v>22.31999969482422</v>
       </c>
       <c r="D34" t="n">
-        <v>2.75</v>
+        <v>21.5</v>
       </c>
       <c r="E34" t="n">
-        <v>2.75</v>
+        <v>20.8700008392334</v>
       </c>
       <c r="F34" t="n">
-        <v>2.480000019073486</v>
+        <v>19.67000007629395</v>
       </c>
       <c r="G34" t="n">
-        <v>3.019999980926514</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="H34" t="n">
-        <v>2.720000028610229</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="I34" t="n">
-        <v>3.710000038146973</v>
+        <v>21.14999961853027</v>
       </c>
       <c r="J34" t="n">
-        <v>3.980000019073486</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="K34" t="n">
-        <v>4.449999809265137</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="L34" t="n">
-        <v>4.949999809265137</v>
+        <v>21.67000007629395</v>
       </c>
       <c r="M34" t="n">
-        <v>4.190000057220459</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="N34" t="n">
-        <v>5.900000095367432</v>
+        <v>27.07999992370605</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BHC</t>
+          <t>MMYT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bausch Health Companies Inc.</t>
+          <t>MakeMyTrip Limited</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.159999847412109</v>
+        <v>101.4899978637695</v>
       </c>
       <c r="D35" t="n">
-        <v>9.199999809265137</v>
+        <v>114.7399978637695</v>
       </c>
       <c r="E35" t="n">
-        <v>8.369999885559082</v>
+        <v>112.2799987792969</v>
       </c>
       <c r="F35" t="n">
-        <v>8.060000419616699</v>
+        <v>109.2699966430664</v>
       </c>
       <c r="G35" t="n">
-        <v>7.429999828338623</v>
+        <v>96.26000213623047</v>
       </c>
       <c r="H35" t="n">
-        <v>7.440000057220459</v>
+        <v>97.98999786376953</v>
       </c>
       <c r="I35" t="n">
-        <v>6.46999979019165</v>
+        <v>104.8199996948242</v>
       </c>
       <c r="J35" t="n">
-        <v>5.300000190734863</v>
+        <v>101.629997253418</v>
       </c>
       <c r="K35" t="n">
-        <v>4.53000020980835</v>
+        <v>98.01999664306641</v>
       </c>
       <c r="L35" t="n">
-        <v>6.659999847412109</v>
+        <v>93.58999633789062</v>
       </c>
       <c r="M35" t="n">
-        <v>5.889999866485596</v>
+        <v>98.75</v>
       </c>
       <c r="N35" t="n">
-        <v>7.420000076293945</v>
+        <v>100.0299987792969</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>HGTY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bilibili Inc.</t>
+          <t>Hagerty, Inc.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23.3799991607666</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="D36" t="n">
-        <v>22.1200008392334</v>
+        <v>11.77999973297119</v>
       </c>
       <c r="E36" t="n">
-        <v>19.17000007629395</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="F36" t="n">
-        <v>18.11000061035156</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="G36" t="n">
-        <v>16.71999931335449</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="H36" t="n">
-        <v>20.34000015258789</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="I36" t="n">
-        <v>19.11000061035156</v>
+        <v>8.810000419616699</v>
       </c>
       <c r="J36" t="n">
-        <v>17.5</v>
+        <v>9.720000267028809</v>
       </c>
       <c r="K36" t="n">
-        <v>18.29999923706055</v>
+        <v>10.10999965667725</v>
       </c>
       <c r="L36" t="n">
-        <v>21.45000076293945</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="M36" t="n">
-        <v>22.81999969482422</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="N36" t="n">
-        <v>23.26000022888184</v>
+        <v>11.76000022888184</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>CGON</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Agnico Eagle Mines Limited</t>
+          <t>CG Oncology, Inc.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>79.56681060791016</v>
+        <v>35.52999877929688</v>
       </c>
       <c r="D37" t="n">
-        <v>85.22617340087891</v>
+        <v>34.75</v>
       </c>
       <c r="E37" t="n">
-        <v>83.37922668457031</v>
+        <v>28.68000030517578</v>
       </c>
       <c r="F37" t="n">
-        <v>77.61737823486328</v>
+        <v>30.06999969482422</v>
       </c>
       <c r="G37" t="n">
-        <v>92.23577117919922</v>
+        <v>25.86000061035156</v>
       </c>
       <c r="H37" t="n">
-        <v>95.55046081542969</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="I37" t="n">
-        <v>108.0430450439453</v>
+        <v>26.94000053405762</v>
       </c>
       <c r="J37" t="n">
-        <v>117.181999206543</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="K37" t="n">
-        <v>117.5906066894531</v>
+        <v>26</v>
       </c>
       <c r="L37" t="n">
-        <v>118.9300003051758</v>
+        <v>26.69000053405762</v>
       </c>
       <c r="M37" t="n">
-        <v>124.3600006103516</v>
+        <v>26.81999969482422</v>
       </c>
       <c r="N37" t="n">
-        <v>144.1699981689453</v>
+        <v>28.67000007629395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The J. M. Smucker Company</t>
+          <t>Frontline plc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>116.3894195556641</v>
+        <v>18.61107444763184</v>
       </c>
       <c r="D38" t="n">
-        <v>109.0946502685547</v>
+        <v>15.45034313201904</v>
       </c>
       <c r="E38" t="n">
-        <v>113.2081756591797</v>
+        <v>13.55008316040039</v>
       </c>
       <c r="F38" t="n">
-        <v>106.8787689208984</v>
+        <v>16.92700958251953</v>
       </c>
       <c r="G38" t="n">
-        <v>103.7438354492188</v>
+        <v>15.68582534790039</v>
       </c>
       <c r="H38" t="n">
-        <v>107.2767028808594</v>
+        <v>14.51305389404297</v>
       </c>
       <c r="I38" t="n">
-        <v>116.1171875</v>
+        <v>16.64152526855469</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0186157226562</v>
+        <v>18.09679412841797</v>
       </c>
       <c r="K38" t="n">
-        <v>110.4294891357422</v>
+        <v>16.24553489685059</v>
       </c>
       <c r="L38" t="n">
-        <v>97.23069000244141</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="M38" t="n">
-        <v>106.2804718017578</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5100021362305</v>
+        <v>21.80999946594238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BF-A</t>
+          <t>OGN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Brown-Forman Corporation</t>
+          <t>Organon &amp; Co.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>46.92560195922852</v>
+        <v>18.03951644897461</v>
       </c>
       <c r="D39" t="n">
-        <v>42.7372932434082</v>
+        <v>15.24425315856934</v>
       </c>
       <c r="E39" t="n">
-        <v>40.56021499633789</v>
+        <v>14.58553123474121</v>
       </c>
       <c r="F39" t="n">
-        <v>36.96118545532227</v>
+        <v>15.21118450164795</v>
       </c>
       <c r="G39" t="n">
-        <v>32.84094619750977</v>
+        <v>14.57575511932373</v>
       </c>
       <c r="H39" t="n">
-        <v>32.55511474609375</v>
+        <v>14.82416820526123</v>
       </c>
       <c r="I39" t="n">
-        <v>32.98879241943359</v>
+        <v>12.87283325195312</v>
       </c>
       <c r="J39" t="n">
-        <v>34.33050918579102</v>
+        <v>9.17923641204834</v>
       </c>
       <c r="K39" t="n">
-        <v>32.96165466308594</v>
+        <v>9.659382820129395</v>
       </c>
       <c r="L39" t="n">
-        <v>27.24816703796387</v>
+        <v>9.679339408874512</v>
       </c>
       <c r="M39" t="n">
-        <v>28.63999938964844</v>
+        <v>9.399936676025391</v>
       </c>
       <c r="N39" t="n">
-        <v>30.35000038146973</v>
+        <v>9.829999923706055</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OLN</t>
+          <t>TMC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Olin Corporation</t>
+          <t>TMC the metals company Inc.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>46.54402542114258</v>
+        <v>0.9890000224113464</v>
       </c>
       <c r="D40" t="n">
-        <v>39.80202484130859</v>
+        <v>0.8479999899864197</v>
       </c>
       <c r="E40" t="n">
-        <v>41.31534194946289</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="F40" t="n">
-        <v>32.94202423095703</v>
+        <v>1.629999995231628</v>
       </c>
       <c r="G40" t="n">
-        <v>28.5465087890625</v>
+        <v>1.710000038146973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.74550437927246</v>
+        <v>1.720000028610229</v>
       </c>
       <c r="I40" t="n">
-        <v>23.62469482421875</v>
+        <v>3.140000104904175</v>
       </c>
       <c r="J40" t="n">
-        <v>21.23983764648438</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="K40" t="n">
-        <v>19.06869697570801</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="L40" t="n">
-        <v>19.91748046875</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="M40" t="n">
-        <v>18.7773551940918</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="N40" t="n">
-        <v>23.65999984741211</v>
+        <v>5.670000076293945</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Molina Healthcare, Inc.</t>
+          <t>Rocket Companies, Inc.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>344.5599975585938</v>
+        <v>15.23557090759277</v>
       </c>
       <c r="D41" t="n">
-        <v>321.2200012207031</v>
+        <v>13.74986553192139</v>
       </c>
       <c r="E41" t="n">
-        <v>297.8999938964844</v>
+        <v>10.65543651580811</v>
       </c>
       <c r="F41" t="n">
-        <v>291.0499877929688</v>
+        <v>11.92349052429199</v>
       </c>
       <c r="G41" t="n">
-        <v>310.4100036621094</v>
+        <v>13.24832248687744</v>
       </c>
       <c r="H41" t="n">
-        <v>301.1199951171875</v>
+        <v>11.42194652557373</v>
       </c>
       <c r="I41" t="n">
-        <v>329.3900146484375</v>
+        <v>12.90999984741211</v>
       </c>
       <c r="J41" t="n">
-        <v>327.010009765625</v>
+        <v>12.75</v>
       </c>
       <c r="K41" t="n">
-        <v>305.0400085449219</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="L41" t="n">
-        <v>297.8999938964844</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="M41" t="n">
-        <v>157.8699951171875</v>
+        <v>17.77000045776367</v>
       </c>
       <c r="N41" t="n">
-        <v>180.8300018310547</v>
+        <v>17.8799991607666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>PSKY</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kinross Gold Corporation</t>
+          <t>Paramount Skydance Corporation</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.273227691650391</v>
+        <v>10.79905891418457</v>
       </c>
       <c r="D42" t="n">
-        <v>9.986554145812988</v>
+        <v>10.71021938323975</v>
       </c>
       <c r="E42" t="n">
-        <v>9.619983673095703</v>
+        <v>10.32524299621582</v>
       </c>
       <c r="F42" t="n">
-        <v>9.21175479888916</v>
+        <v>10.78790760040283</v>
       </c>
       <c r="G42" t="n">
-        <v>11.2091236114502</v>
+        <v>11.26384353637695</v>
       </c>
       <c r="H42" t="n">
-        <v>10.65264320373535</v>
+        <v>11.85876560211182</v>
       </c>
       <c r="I42" t="n">
-        <v>12.5307674407959</v>
+        <v>11.69062995910645</v>
       </c>
       <c r="J42" t="n">
-        <v>14.70690059661865</v>
+        <v>12.04911708831787</v>
       </c>
       <c r="K42" t="n">
-        <v>14.69693660736084</v>
+        <v>12.84575176239014</v>
       </c>
       <c r="L42" t="n">
-        <v>15.60542488098145</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="M42" t="n">
-        <v>15.97484302520752</v>
+        <v>14.69999980926514</v>
       </c>
       <c r="N42" t="n">
-        <v>20.89999961853027</v>
+        <v>15.0600004196167</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>RIVN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fortuna Mining Corp.</t>
+          <t>Rivian Automotive, Inc.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.630000114440918</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D43" t="n">
-        <v>4.96999979019165</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E43" t="n">
-        <v>4.78000020980835</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F43" t="n">
-        <v>4.289999961853027</v>
+        <v>12.5600004196167</v>
       </c>
       <c r="G43" t="n">
-        <v>5.070000171661377</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="H43" t="n">
-        <v>4.320000171661377</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="I43" t="n">
-        <v>6.099999904632568</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="J43" t="n">
-        <v>6.25</v>
+        <v>14.52999973297119</v>
       </c>
       <c r="K43" t="n">
-        <v>5.849999904632568</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="L43" t="n">
-        <v>6.539999961853027</v>
+        <v>12.86999988555908</v>
       </c>
       <c r="M43" t="n">
-        <v>6.449999809265137</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="N43" t="n">
-        <v>7.699999809265137</v>
+        <v>14.4399995803833</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>CRNX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Brown-Forman Corporation</t>
+          <t>Crinetics Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48.019775390625</v>
+        <v>55.95999908447266</v>
       </c>
       <c r="D44" t="n">
-        <v>43.18027114868164</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="E44" t="n">
-        <v>41.26790618896484</v>
+        <v>51.13000106811523</v>
       </c>
       <c r="F44" t="n">
-        <v>37.24702835083008</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="G44" t="n">
-        <v>32.53569412231445</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="H44" t="n">
-        <v>32.63426208496094</v>
+        <v>33.54000091552734</v>
       </c>
       <c r="I44" t="n">
-        <v>33.45233154296875</v>
+        <v>33.38999938964844</v>
       </c>
       <c r="J44" t="n">
-        <v>34.55865097045898</v>
+        <v>30.51000022888184</v>
       </c>
       <c r="K44" t="n">
-        <v>33.07076644897461</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="L44" t="n">
-        <v>26.69268989562988</v>
+        <v>28.59000015258789</v>
       </c>
       <c r="M44" t="n">
-        <v>28.85000038146973</v>
+        <v>30.98999977111816</v>
       </c>
       <c r="N44" t="n">
-        <v>29.94000053405762</v>
+        <v>34.65000152587891</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BTU</t>
+          <t>UNM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Peabody Energy Corporation</t>
+          <t>Unum Group</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26.10091590881348</v>
+        <v>62.70185852050781</v>
       </c>
       <c r="D45" t="n">
-        <v>25.83538436889648</v>
+        <v>75.63040161132812</v>
       </c>
       <c r="E45" t="n">
-        <v>23.45541954040527</v>
+        <v>71.82428741455078</v>
       </c>
       <c r="F45" t="n">
-        <v>20.64955520629883</v>
+        <v>74.99112701416016</v>
       </c>
       <c r="G45" t="n">
-        <v>17.89825248718262</v>
+        <v>81.38378143310547</v>
       </c>
       <c r="H45" t="n">
-        <v>13.59872722625732</v>
+        <v>80.56291961669922</v>
       </c>
       <c r="I45" t="n">
-        <v>13.4255838394165</v>
+        <v>76.80477142333984</v>
       </c>
       <c r="J45" t="n">
-        <v>12.22669410705566</v>
+        <v>81.24022674560547</v>
       </c>
       <c r="K45" t="n">
-        <v>13.03916454315186</v>
+        <v>80.29569244384766</v>
       </c>
       <c r="L45" t="n">
-        <v>13.3650598526001</v>
+        <v>71.39714050292969</v>
       </c>
       <c r="M45" t="n">
-        <v>16.08388328552246</v>
+        <v>69.86000061035156</v>
       </c>
       <c r="N45" t="n">
-        <v>17.39999961853027</v>
+        <v>72.77999877929688</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>FIG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Helmerich &amp; Payne, Inc.</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>29.1180419921875</v>
-      </c>
-      <c r="D46" t="n">
-        <v>32.16193771362305</v>
-      </c>
-      <c r="E46" t="n">
-        <v>33.14785766601562</v>
-      </c>
-      <c r="F46" t="n">
-        <v>30.87761116027832</v>
-      </c>
-      <c r="G46" t="n">
-        <v>30.46295356750488</v>
-      </c>
-      <c r="H46" t="n">
-        <v>25.56419372558594</v>
-      </c>
-      <c r="I46" t="n">
-        <v>25.42098617553711</v>
-      </c>
-      <c r="J46" t="n">
-        <v>18.38447189331055</v>
-      </c>
-      <c r="K46" t="n">
-        <v>14.84188556671143</v>
-      </c>
-      <c r="L46" t="n">
-        <v>14.95346069335938</v>
-      </c>
+          <t>Figma, Inc.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>15.98915481567383</v>
+        <v>70.27999877929688</v>
       </c>
       <c r="N46" t="n">
-        <v>20.88999938964844</v>
+        <v>68.12999725341797</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>RBLX</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wheaton Precious Metals Corp.</t>
+          <t>Roblox Corporation</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>60.68281936645508</v>
+        <v>51.72000122070312</v>
       </c>
       <c r="D47" t="n">
-        <v>65.58076477050781</v>
+        <v>50.13000106811523</v>
       </c>
       <c r="E47" t="n">
-        <v>61.92469024658203</v>
+        <v>57.86000061035156</v>
       </c>
       <c r="F47" t="n">
-        <v>56.01218795776367</v>
+        <v>71.06999969482422</v>
       </c>
       <c r="G47" t="n">
-        <v>62.21694946289062</v>
+        <v>63.63999938964844</v>
       </c>
       <c r="H47" t="n">
-        <v>68.64082336425781</v>
+        <v>58.29000091552734</v>
       </c>
       <c r="I47" t="n">
-        <v>77.31553649902344</v>
+        <v>67.05000305175781</v>
       </c>
       <c r="J47" t="n">
-        <v>83.18167877197266</v>
+        <v>86.98000335693359</v>
       </c>
       <c r="K47" t="n">
-        <v>86.58262634277344</v>
+        <v>105.1999969482422</v>
       </c>
       <c r="L47" t="n">
-        <v>89.80000305175781</v>
+        <v>137.7899932861328</v>
       </c>
       <c r="M47" t="n">
-        <v>91.51000213623047</v>
+        <v>124.5899963378906</v>
       </c>
       <c r="N47" t="n">
-        <v>100.4199981689453</v>
+        <v>133.4600067138672</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UPWK</t>
+          <t>COOP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Upwork Inc.</t>
+          <t>Mr. Cooper Group Inc.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10.44999980926514</v>
+        <v>88.55000305175781</v>
       </c>
       <c r="D48" t="n">
-        <v>13.5600004196167</v>
+        <v>98.66999816894531</v>
       </c>
       <c r="E48" t="n">
-        <v>16.96999931335449</v>
+        <v>96.01000213623047</v>
       </c>
       <c r="F48" t="n">
-        <v>16.35000038146973</v>
+        <v>103.8099975585938</v>
       </c>
       <c r="G48" t="n">
-        <v>15.76000022888184</v>
+        <v>112.370002746582</v>
       </c>
       <c r="H48" t="n">
-        <v>15.93000030517578</v>
+        <v>119.5999984741211</v>
       </c>
       <c r="I48" t="n">
-        <v>13.05000019073486</v>
+        <v>119.0100021362305</v>
       </c>
       <c r="J48" t="n">
-        <v>13.14999961853027</v>
+        <v>129.5299987792969</v>
       </c>
       <c r="K48" t="n">
-        <v>15.48999977111816</v>
+        <v>149.2100067138672</v>
       </c>
       <c r="L48" t="n">
-        <v>13.4399995803833</v>
+        <v>155.7200012207031</v>
       </c>
       <c r="M48" t="n">
-        <v>11.96000003814697</v>
+        <v>188.5299987792969</v>
       </c>
       <c r="N48" t="n">
-        <v>15.39000034332275</v>
+        <v>189.2400054931641</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EMN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Eastman Chemical Company</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>107.9776992797852</v>
+        <v>224.8634796142578</v>
       </c>
       <c r="D49" t="n">
-        <v>102.1637496948242</v>
+        <v>236.2305603027344</v>
       </c>
       <c r="E49" t="n">
-        <v>101.8040618896484</v>
+        <v>249.5341796875</v>
       </c>
       <c r="F49" t="n">
-        <v>88.77718353271484</v>
+        <v>235.1651916503906</v>
       </c>
       <c r="G49" t="n">
-        <v>97.69847106933594</v>
+        <v>240.9845275878906</v>
       </c>
       <c r="H49" t="n">
-        <v>95.93372344970703</v>
+        <v>221.5876159667969</v>
       </c>
       <c r="I49" t="n">
-        <v>86.38446807861328</v>
+        <v>211.9811248779297</v>
       </c>
       <c r="J49" t="n">
-        <v>76.19049835205078</v>
+        <v>200.3595733642578</v>
       </c>
       <c r="K49" t="n">
-        <v>77.54609680175781</v>
+        <v>204.9374084472656</v>
       </c>
       <c r="L49" t="n">
-        <v>73.87509918212891</v>
+        <v>207.3347015380859</v>
       </c>
       <c r="M49" t="n">
-        <v>72.61000061035156</v>
+        <v>231.8768463134766</v>
       </c>
       <c r="N49" t="n">
-        <v>70.33999633789062</v>
+        <v>238.4700012207031</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SNDK</t>
+          <t>SLG</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sandisk Corporation</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>SL Green Realty Corp.</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>72.26631927490234</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74.97306060791016</v>
+      </c>
+      <c r="E50" t="n">
+        <v>65.33273315429688</v>
+      </c>
+      <c r="F50" t="n">
+        <v>65.07627868652344</v>
+      </c>
+      <c r="G50" t="n">
+        <v>62.56694030761719</v>
+      </c>
+      <c r="H50" t="n">
+        <v>56.16044235229492</v>
+      </c>
       <c r="I50" t="n">
-        <v>47.61000061035156</v>
+        <v>51.43685150146484</v>
       </c>
       <c r="J50" t="n">
-        <v>32.11000061035156</v>
+        <v>55.77570343017578</v>
       </c>
       <c r="K50" t="n">
-        <v>37.68999862670898</v>
+        <v>61.08707427978516</v>
       </c>
       <c r="L50" t="n">
-        <v>45.34999847412109</v>
+        <v>56.73518753051758</v>
       </c>
       <c r="M50" t="n">
-        <v>42.91999816894531</v>
+        <v>56.63195419311523</v>
       </c>
       <c r="N50" t="n">
-        <v>52.47000122070312</v>
+        <v>58.61999893188477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>SRRK</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Toronto-Dominion Bank</t>
+          <t>Scholar Rock Holding Corporation</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60.25476837158203</v>
+        <v>28.44000053405762</v>
       </c>
       <c r="D51" t="n">
-        <v>52.64434432983398</v>
+        <v>39.90000152587891</v>
       </c>
       <c r="E51" t="n">
-        <v>54.48273086547852</v>
+        <v>43.22000122070312</v>
       </c>
       <c r="F51" t="n">
-        <v>51.31188583374023</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="G51" t="n">
-        <v>55.00317764282227</v>
+        <v>38.81999969482422</v>
       </c>
       <c r="H51" t="n">
-        <v>58.52235412597656</v>
+        <v>32.15000152587891</v>
       </c>
       <c r="I51" t="n">
-        <v>58.55165481567383</v>
+        <v>32.90999984741211</v>
       </c>
       <c r="J51" t="n">
-        <v>62.30271530151367</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="K51" t="n">
-        <v>68.33527374267578</v>
+        <v>35.41999816894531</v>
       </c>
       <c r="L51" t="n">
-        <v>72.68972778320312</v>
+        <v>37.04999923706055</v>
       </c>
       <c r="M51" t="n">
-        <v>72.12562561035156</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="N51" t="n">
-        <v>75.13999938964844</v>
+        <v>34.38000106811523</v>
       </c>
     </row>
   </sheetData>
